--- a/downloaded_files/CMPS201_Tutorial-35669.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35669.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -286,15 +286,6 @@
   </x:si>
   <x:si>
     <x:t>Mariam Raafat Mohammed Farahat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230257</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIM</x:t>
   </x:si>
   <x:si>
     <x:t>1230258</x:t>
@@ -455,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1770,7 +1761,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6914562847</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1802,7 +1793,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45909.4629548958</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1834,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4629548958</x:v>
+        <x:v>45907.8047603356</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1866,7 +1857,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.8047603356</x:v>
+        <x:v>45914.462219213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1898,7 +1889,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.462219213</x:v>
+        <x:v>45907.4205386921</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1915,38 +1906,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.4205386921</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35669.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35669.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,6 +109,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Samir Mohamed Abdelhameed Amer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
   </x:si>
   <x:si>
     <x:t>1230064</x:t>
@@ -446,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -746,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1123,7 +1132,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4315548958</x:v>
+        <x:v>45922.4078728009</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45907.4315548958</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.432041169</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1215,9 +1224,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45907.432041169</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1240,16 +1251,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45909.4152931713</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1281,7 +1290,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45909.4152931713</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1313,7 +1322,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4169975694</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1345,7 +1354,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.5340298958</x:v>
+        <x:v>45909.4169975694</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1377,7 +1386,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5337159722</x:v>
+        <x:v>45914.5340298958</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1409,7 +1418,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4328253472</x:v>
+        <x:v>45914.5337159722</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1441,7 +1450,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45907.4328253472</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1473,7 +1482,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4149802431</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1505,7 +1514,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45909.4149802431</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1537,7 +1546,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5344012384</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1569,7 +1578,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4421948727</x:v>
+        <x:v>45914.5344012384</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1601,7 +1610,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4298248032</x:v>
+        <x:v>45907.4421948727</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1633,7 +1642,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45909.4298248032</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1665,7 +1674,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5347554745</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1697,7 +1706,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4177945602</x:v>
+        <x:v>45914.5347554745</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1729,7 +1738,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45907.4177945602</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1761,7 +1770,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1793,7 +1802,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4629548958</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.8047603356</x:v>
+        <x:v>45909.4629548958</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.462219213</x:v>
+        <x:v>45907.8047603356</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4205386921</x:v>
+        <x:v>45914.462219213</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1906,6 +1915,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.4205386921</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35669.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35669.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -304,15 +304,6 @@
   </x:si>
   <x:si>
     <x:t>Moustafa Ahmed Abdelkarim Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منة الله محمد محمود ابو الفتوح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mennatullah Mohammad Mahmoud Abolfotoh</x:t>
   </x:si>
   <x:si>
     <x:t>1230275</x:t>
@@ -455,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1834,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4629548958</x:v>
+        <x:v>45907.8047603356</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1866,7 +1857,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.8047603356</x:v>
+        <x:v>45914.462219213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1898,7 +1889,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.462219213</x:v>
+        <x:v>45907.4205386921</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1915,38 +1906,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.4205386921</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35669.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35669.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Passant yasser mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزة محمد سيد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230035</x:t>
@@ -446,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -746,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -933,7 +942,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4149852199</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -961,9 +970,11 @@
       <x:c r="C6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6849449884</x:v>
+        <x:v>45907.4149852199</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -986,16 +997,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45907.414719213</x:v>
+        <x:v>45907.6849449884</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1027,7 +1036,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4174121875</x:v>
+        <x:v>45907.414719213</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1059,7 +1068,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4277437153</x:v>
+        <x:v>45907.4174121875</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1091,7 +1100,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4210305556</x:v>
+        <x:v>45907.4277437153</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1123,7 +1132,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45922.4078728009</x:v>
+        <x:v>45907.4210305556</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4315548958</x:v>
+        <x:v>45922.4078728009</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45907.4315548958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.432041169</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1247,9 +1256,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45907.432041169</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1272,16 +1283,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45909.4152931713</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1313,7 +1322,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45927.5343335648</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1345,7 +1354,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4169975694</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1377,7 +1386,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5340298958</x:v>
+        <x:v>45909.4169975694</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1409,7 +1418,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5337159722</x:v>
+        <x:v>45914.5340298958</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1441,7 +1450,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4328253472</x:v>
+        <x:v>45914.5337159722</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1473,7 +1482,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45907.4328253472</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1505,7 +1514,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4149802431</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1537,7 +1546,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45927.434502662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1569,7 +1578,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5344012384</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1601,7 +1610,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4421948727</x:v>
+        <x:v>45914.5344012384</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1633,7 +1642,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4298248032</x:v>
+        <x:v>45907.4421948727</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1665,7 +1674,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45909.4298248032</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1697,7 +1706,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5347554745</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1729,7 +1738,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4177945602</x:v>
+        <x:v>45914.5347554745</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1761,7 +1770,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45907.4177945602</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1793,7 +1802,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.8047603356</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.462219213</x:v>
+        <x:v>45907.8047603356</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4205386921</x:v>
+        <x:v>45914.462219213</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1906,6 +1915,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.4205386921</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35669.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35669.xlsx
@@ -1260,7 +1260,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.432041169</x:v>
+        <x:v>45927.924259838</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Tutorial-35669.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35669.xlsx
@@ -1770,7 +1770,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4177945602</x:v>
+        <x:v>45928.4000073264</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Tutorial-35669.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35669.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -169,6 +169,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ahmed Mohammed Hamdy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر الوليد محمد السيد إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230214</x:t>
@@ -455,7 +464,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +764,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1354,7 +1363,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45907.4610953704</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1386,7 +1395,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4169975694</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1418,7 +1427,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5340298958</x:v>
+        <x:v>45909.4169975694</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1450,7 +1459,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5337159722</x:v>
+        <x:v>45914.5340298958</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1482,7 +1491,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4328253472</x:v>
+        <x:v>45914.5337159722</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1514,7 +1523,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45907.4328253472</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1546,7 +1555,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.434502662</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1578,7 +1587,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45927.434502662</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1610,7 +1619,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5344012384</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1642,7 +1651,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4421948727</x:v>
+        <x:v>45914.5344012384</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1674,7 +1683,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4298248032</x:v>
+        <x:v>45907.4421948727</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1706,7 +1715,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45909.4298248032</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1738,7 +1747,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5347554745</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1770,7 +1779,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45928.4000073264</x:v>
+        <x:v>45914.5347554745</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1802,7 +1811,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45928.4000073264</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1834,7 +1843,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6710647801</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1866,7 +1875,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.8047603356</x:v>
+        <x:v>45907.6710647801</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1898,7 +1907,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.462219213</x:v>
+        <x:v>45907.8047603356</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1930,7 +1939,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4205386921</x:v>
+        <x:v>45914.462219213</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1947,6 +1956,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.4205386921</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35669.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35669.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,12 +78,6 @@
     <x:t>Rebal Sherif abd aldayem mostafa</x:t>
   </x:si>
   <x:si>
-    <x:t>4240017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد خالد سيف الله محمد</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230331</x:t>
   </x:si>
   <x:si>
@@ -259,6 +253,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ehab Said El Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد كريم احمد على الحملي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
   </x:si>
   <x:si>
     <x:t>1220314</x:t>
@@ -1011,9 +1014,11 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6849449884</x:v>
+        <x:v>45907.414719213</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1036,16 +1041,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.414719213</x:v>
+        <x:v>45907.4174121875</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1068,16 +1073,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4174121875</x:v>
+        <x:v>45907.4277437153</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1100,16 +1105,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4277437153</x:v>
+        <x:v>45907.4210305556</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1132,16 +1137,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4210305556</x:v>
+        <x:v>45922.4078728009</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1164,16 +1169,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45922.4078728009</x:v>
+        <x:v>45907.4315548958</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1196,16 +1201,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4315548958</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1228,16 +1233,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45927.924259838</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1260,16 +1265,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45927.924259838</x:v>
+        <x:v>45907.6650284722</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1297,9 +1300,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6650284722</x:v>
+        <x:v>45927.5343335648</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1322,16 +1327,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.5343335648</x:v>
+        <x:v>45907.4610953704</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1354,16 +1359,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4610953704</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1386,16 +1391,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45909.4169975694</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1418,16 +1423,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4169975694</x:v>
+        <x:v>45914.5340298958</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1450,16 +1455,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5340298958</x:v>
+        <x:v>45914.5337159722</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1482,16 +1487,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5337159722</x:v>
+        <x:v>45907.4328253472</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1514,16 +1519,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4328253472</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1546,16 +1551,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45927.434502662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1578,16 +1583,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.434502662</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1610,16 +1615,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45914.5344012384</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1642,16 +1647,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5344012384</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1674,13 +1679,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45907.4421948727</x:v>
@@ -1706,13 +1711,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45909.4298248032</x:v>
@@ -1738,13 +1743,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45906.6647710648</x:v>
@@ -1770,13 +1775,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45914.5347554745</x:v>
@@ -1802,13 +1807,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45928.4000073264</x:v>
@@ -1834,13 +1839,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45907.538403588</x:v>
@@ -1866,13 +1871,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.6710647801</x:v>
@@ -1898,13 +1903,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45907.8047603356</x:v>
@@ -1930,13 +1935,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45914.462219213</x:v>
@@ -1962,13 +1967,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.4205386921</x:v>

--- a/downloaded_files/CMPS201_Tutorial-35669.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35669.xlsx
@@ -63,7 +63,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
